--- a/test_semantic.xlsx
+++ b/test_semantic.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomilov-iv\Desktop\BrandPol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5915CED3-C76E-4971-9788-B9E24C769236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69F8BFB-036D-43F9-9E5F-264FCCBD58C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>Название</t>
   </si>
@@ -121,6 +122,75 @@
   </si>
   <si>
     <t>арбуз 3.001кг</t>
+  </si>
+  <si>
+    <t>good 8</t>
+  </si>
+  <si>
+    <t>good 9</t>
+  </si>
+  <si>
+    <t>good 10</t>
+  </si>
+  <si>
+    <t>блузка синяя</t>
+  </si>
+  <si>
+    <t>блузка коричневая</t>
+  </si>
+  <si>
+    <t>блузка жёлтая</t>
+  </si>
+  <si>
+    <t>good 11</t>
+  </si>
+  <si>
+    <t>good 12</t>
+  </si>
+  <si>
+    <t>душевая кабина 90x44 см</t>
+  </si>
+  <si>
+    <t>душевая кабина 90х90х44 см</t>
+  </si>
+  <si>
+    <t>good 13</t>
+  </si>
+  <si>
+    <t>полотенце 90см</t>
+  </si>
+  <si>
+    <t>палка 2м</t>
+  </si>
+  <si>
+    <t>good 14</t>
+  </si>
+  <si>
+    <t>вес 12 г</t>
+  </si>
+  <si>
+    <t>объем 120мл</t>
+  </si>
+  <si>
+    <t>емкость 1024 мб</t>
+  </si>
+  <si>
+    <t>длина 99 см</t>
+  </si>
+  <si>
+    <t>размер 120х140мм</t>
+  </si>
+  <si>
+    <t>размер 15см на 15см</t>
+  </si>
+  <si>
+    <t>товар 10шт</t>
+  </si>
+  <si>
+    <t>аспирин 20мг\2мл</t>
+  </si>
+  <si>
+    <t>сапоги 42р.</t>
   </si>
 </sst>
 </file>
@@ -447,19 +517,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -550,7 +620,7 @@
         <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -561,7 +631,7 @@
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -572,7 +642,7 @@
         <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -583,7 +653,198 @@
         <v>27</v>
       </c>
       <c r="K8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8757FD63-9D1C-49BA-B16C-06229AB3B8EB}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
